--- a/theo/outputs/WTI/correlations.xlsx
+++ b/theo/outputs/WTI/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>-0.7293517365453935</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.1413122849752553</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.1301280097696743</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.4237695484835876</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>-0.7621124360385038</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.03931337575629112</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.03953620864349001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3001096189682841</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3033621811805723</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.03931337575629112</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.03953620864349001</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3001096189682841</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3033621811805723</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.01843689272163768</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.0633134979661889</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.06208668950236233</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>-0.7293517365453935</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.1246322409387724</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.2313458009063326</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.8681700071287578</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.6926484059873187</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.05712359225450529</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.05744142996338582</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.2029140089151731</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.2012729636261646</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.08974810309854399</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.08937018366593528</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.1688803613083286</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.1671255756008762</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>0.1104475414294781</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>0.1242127645216948</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>0.1660904843592465</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.1413122849752553</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.1246322409387724</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.1830616190120994</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>0.09737554773558374</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.007777549773725188</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>-0.06402223614929441</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>-0.06503653858788859</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>-0.08252393387883698</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>-0.07988118670655284</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.029728934531395</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.03098866079189688</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>-0.07397751171853287</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>-0.0713463132612729</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.6644033030134257</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.404336790553593</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.7814779513260552</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.1301280097696743</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.2313458009063326</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.1830616190120994</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.2555641639747889</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.1199881751701883</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.03613054184609582</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.03387431161666483</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>-0.1015905610696355</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>-0.1016635610312348</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>-0.009112927150068614</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>-0.008027854985530394</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>-0.1060391634816839</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>-0.1057920653014422</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.6131179457018334</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1836065378808718</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.06068601041495596</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.4237695484835876</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.8681700071287578</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>0.09737554773558374</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.2555641639747889</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.4695031310494118</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>-0.05504499766653144</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>-0.05534122557198764</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>-0.3551396731198775</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>-0.3525437617157677</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.01448950706990499</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.01380304304776267</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>-0.3421616869336757</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>-0.3394919983669525</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.1160370881624765</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.05037200694083872</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.1851936254258146</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>-0.7621124360385038</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.6926484059873187</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.007777549773725188</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.1199881751701883</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.4695031310494118</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.1028683549183585</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.1027896722168277</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.5657223148401254</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.5669647526796961</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.07549543601852758</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.07467790059836379</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.5607879784792088</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.5618768156954861</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.08496770540053565</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.1122115798988795</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>0.1596826043959564</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.03931337575629112</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.05712359225450529</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>-0.06402223614929441</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.03613054184609582</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>-0.05504499766653144</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.1028683549183585</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9995853277211696</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1986229054327269</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1993603519852084</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.0003587544949329832</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.0004195494392451667</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.2075958228037869</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.2082867990006844</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.07996088604204615</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.04237951252749381</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>-0.02111650110381214</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.03953620864349001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.05744142996338582</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>-0.06503653858788859</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.03387431161666483</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>-0.05534122557198764</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.1027896722168277</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9995853277211696</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1996836717638006</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.2004875716252745</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.0004140552659787316</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.0004750604190809774</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.20900504303977</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.209764826011263</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.07906569232977134</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.04157675727583715</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>-0.02022487285411042</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3001096189682841</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.2029140089151731</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>-0.08252393387883698</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>-0.1015905610696355</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>-0.3551396731198775</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.5657223148401254</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1986229054327269</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1996836717638006</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998106018527527</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>-0.006037601701030793</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>-0.006691350490934188</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9613731742301822</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9607750125567203</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>0.01091746084895494</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.01191346348954144</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.02690115125297601</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3033621811805723</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.2012729636261646</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>-0.07988118670655284</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>-0.1016635610312348</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>-0.3525437617157677</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.5669647526796961</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1993603519852084</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.2004875716252745</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998106018527527</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>-0.007008225705473684</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>-0.007714159663213776</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9612767339164858</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9610364350917615</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>0.01309659078767015</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.01081119262910251</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.02459805360307199</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.03931337575629112</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.08974810309854399</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.029728934531395</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>-0.009112927150068614</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.01448950706990499</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.07549543601852758</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.0003587544949329832</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.0004140552659787316</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>-0.006037601701030793</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>-0.007008225705473684</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9995853277211696</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1986229054327269</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1993603519852084</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.0304320046611685</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>2.045797258073649e-06</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.01442420736682348</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.03953620864349001</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.08937018366593528</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.03098866079189688</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>-0.008027854985530394</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.01380304304776267</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.07467790059836379</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.0004195494392451667</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.0004750604190809774</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>-0.006691350490934188</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>-0.007714159663213776</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9995853277211696</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1996836717638006</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.2004875716252745</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.03062959365619257</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>0.0006722564925486592</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.01517108759885276</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3001096189682841</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.1688803613083286</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>-0.07397751171853287</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>-0.1060391634816839</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>-0.3421616869336757</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.5607879784792088</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.2075958228037869</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.20900504303977</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9613731742301822</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9612767339164858</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1986229054327269</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1996836717638006</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998106018527527</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>0.02061205928379359</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.013075840054095</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.02940803985287774</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3033621811805723</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.1671255756008762</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>-0.0713463132612729</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>-0.1057920653014422</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>-0.3394919983669525</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.5618768156954861</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.2082867990006844</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.209764826011263</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9607750125567203</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9610364350917615</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1993603519852084</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.2004875716252745</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998106018527527</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>0.02254713863588834</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.01203003413909192</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.02708808975218741</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.01843689272163768</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>0.1104475414294781</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.6644033030134257</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.6131179457018334</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.1160370881624765</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.08496770540053565</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.07996088604204615</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.07906569232977134</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>0.01091746084895494</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>0.01309659078767015</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.0304320046611685</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.03062959365619257</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>0.02061205928379359</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>0.02254713863588834</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.4580890656758214</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.5818379086381104</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.0633134979661889</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>0.1242127645216948</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.404336790553593</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1836065378808718</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.05037200694083872</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.1122115798988795</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.04237951252749381</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.04157675727583715</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.01191346348954144</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.01081119262910251</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>2.045797258073649e-06</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>0.0006722564925486592</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.013075840054095</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.01203003413909192</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.4580890656758214</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.481067606654573</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.06208668950236233</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>0.1660904843592465</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.7814779513260552</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.06068601041495596</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.1851936254258146</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>0.1596826043959564</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>-0.02111650110381214</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>-0.02022487285411042</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.02690115125297601</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.02459805360307199</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.01442420736682348</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.01517108759885276</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.02940803985287774</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.02708808975218741</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.5818379086381104</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.481067606654573</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.1493390770891962</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>0.124971831102531</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>0.1143677706310634</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>0.4009657959006789</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.1789752000992187</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>-0.0110662826715494</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>-0.01097843195076101</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>-0.0442584484723641</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>-0.0425951439065096</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>-0.0110662826715494</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>-0.01097843195076101</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>-0.0442584484723641</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>-0.0425951439065096</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.005467487597226775</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>0.0640643709558029</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.02634755108748299</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.1493390770891962</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.03399961511627354</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.0635076287093421</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.2815478173059123</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8169817138859936</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.0537101935383698</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.05344648909516932</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.302369488917382</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.3020724449121633</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.05983670271713422</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.06003392195677432</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.2808920783848433</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.2804993285972476</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.01625768651034283</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.05098450791985396</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>0.01510687892935142</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>0.124971831102531</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.03399961511627354</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.2223350609641049</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.07428011782685111</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.02047145211200515</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.03640727436029041</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.03646757384485746</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.03509688260592726</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.03228451525878582</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>-0.02663604088129705</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>-0.02543690775680765</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.0390351839254858</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.03609647399521893</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.6376252001427347</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.4545261785253485</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.8386630720283024</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>0.1143677706310634</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.0635076287093421</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.2223350609641049</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.2617147038562218</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.06145026026310164</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>-0.004214696443138201</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>-0.005787999159270162</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>-0.003391251023177182</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>-0.001444081205455743</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>-0.04053539611283231</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>-0.04084789554791442</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>-0.0122004522529681</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>-0.01033208943443197</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.6092987709278096</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1414688054919087</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.1160658159061702</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>0.4009657959006789</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.2815478173059123</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.07428011782685111</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.2617147038562218</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.2347986542508547</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.01741804618384742</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.01713303525082411</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>-0.07723167520571798</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.07164664650733159</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.003455647148692765</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.004408616568742201</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>-0.07467510304627911</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.06928872517989569</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1463750597234656</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.05276108663107057</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.1513146555187677</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.1789752000992187</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8169817138859936</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.02047145211200515</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.06145026026310164</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.2347986542508547</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.0571432074799131</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05728984648651824</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.3026400687372685</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3026941004526416</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.06743469610853725</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.06719410399465948</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.3045818998284624</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3045876486611054</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.03190390415342728</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.06974785793743728</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.03318472948500489</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>-0.0110662826715494</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.0537101935383698</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.03640727436029041</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>-0.004214696443138201</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.01741804618384742</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.0571432074799131</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9994151829709603</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1881628053152909</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1890018473329516</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.005183909651054432</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.005311838469406457</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1871714242734843</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.187683083630564</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.02703326031395865</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.002755225974841914</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.007359850957956215</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>-0.01097843195076101</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.05344648909516932</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.03646757384485746</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>-0.005787999159270162</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.01713303525082411</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05728984648651824</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9994151829709603</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1880266519279799</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1890112998271324</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.005363129558877382</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.005471636031221833</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.186825510361927</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1874746222245783</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.02587261313131731</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.002250723883896113</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.006763075374088407</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>-0.0442584484723641</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.302369488917382</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.03509688260592726</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>-0.003391251023177182</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>-0.07723167520571798</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.3026400687372685</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1881628053152909</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1880266519279799</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9995983592877846</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.01721808708310911</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.0165125110532414</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9692624418737439</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9686476843291161</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.02586469374089363</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.02882317704486933</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.02988386780165803</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>-0.0425951439065096</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.3020724449121633</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.03228451525878582</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>-0.001444081205455743</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.07164664650733159</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3026941004526416</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1890018473329516</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1890112998271324</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9995983592877846</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.01570952426540864</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.01492095741620032</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9687100389137238</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9688549166353005</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.02511590714852654</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.02677193116384233</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.02839261976809426</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>-0.0110662826715494</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.05983670271713422</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>-0.02663604088129705</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>-0.04053539611283231</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.003455647148692765</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.06743469610853725</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.005183909651054432</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.005363129558877382</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.01721808708310911</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.01570952426540864</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9994151829709603</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1881628053152909</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1890018473329516</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.01141993894925799</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.01299733681859333</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>-0.01623524758169516</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>-0.01097843195076101</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.06003392195677432</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>-0.02543690775680765</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>-0.04084789554791442</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.004408616568742201</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.06719410399465948</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.005311838469406457</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.005471636031221833</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.0165125110532414</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.01492095741620032</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9994151829709603</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1880266519279799</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1890112998271324</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.01268069165561658</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.01355002682860309</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>-0.01488159018219938</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>-0.0442584484723641</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.2808920783848433</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.0390351839254858</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>-0.0122004522529681</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>-0.07467510304627911</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.3045818998284624</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1871714242734843</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.186825510361927</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9692624418737439</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9687100389137238</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1881628053152909</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1880266519279799</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9995983592877846</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.02179610070581304</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.02646715972729094</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.0357392363221898</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>-0.0425951439065096</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.2804993285972476</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.03609647399521893</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>-0.01033208943443197</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.06928872517989569</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3045876486611054</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.187683083630564</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1874746222245783</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9686476843291161</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9688549166353005</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1890018473329516</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1890112998271324</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9995983592877846</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.02087553376331307</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.0241940430005425</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.03396297168661185</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.005467487597226775</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.01625768651034283</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.6376252001427347</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.6092987709278096</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1463750597234656</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.03190390415342728</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.02703326031395865</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.02587261313131731</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.02586469374089363</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.02511590714852654</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.01141993894925799</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.01268069165561658</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.02179610070581304</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.02087553376331307</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.4741124749773573</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.5903761152575445</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>0.0640643709558029</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.05098450791985396</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.4545261785253485</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1414688054919087</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.05276108663107057</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.06974785793743728</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.002755225974841914</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.002250723883896113</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.02882317704486933</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.02677193116384233</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.01299733681859333</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.01355002682860309</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.02646715972729094</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.0241940430005425</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.4741124749773573</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.5564903706115278</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.02634755108748299</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>0.01510687892935142</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.8386630720283024</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.1160658159061702</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.1513146555187677</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.03318472948500489</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.007359850957956215</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.006763075374088407</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.02988386780165803</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.02839261976809426</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>-0.01623524758169516</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>-0.01488159018219938</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.0357392363221898</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.03396297168661185</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.5903761152575445</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.5564903706115278</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>-0.5453122218638694</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>0.2832024693508144</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>0.2778111227546854</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>0.7498675833472358</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>-0.5210197461253632</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.004621036211975496</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.004014182287111465</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.006686474539781652</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.005986876023666271</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.004621036211975496</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.004014182287111465</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.006686474539781652</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.005986876023666271</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.01059822522945572</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.1636420680742338</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>-0.07768174240859298</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>-0.5453122218638694</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.2133865214823194</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.213109153941083</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.5783291298597261</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9013594618481426</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.04189191896392837</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.04184738867524801</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1391180440002478</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1402957807285293</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.04827082585190863</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.04819997725618546</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1211487368577362</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1223984045686762</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.004144655095333673</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.09465537035942269</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.0273909306669804</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>0.2832024693508144</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.2133865214823194</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.2819943515771311</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.2592116930720139</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.1955052353349092</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.02292575539731612</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.0240454398806087</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.02221165189947959</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.02100418231435809</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>-0.009345301032092197</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>-0.009167380241367346</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.02321238687433164</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.02197886396287686</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.6143839808475651</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.4893035990136784</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.1419276064755105</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>0.2778111227546854</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.213109153941083</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.2819943515771311</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.3712652899277355</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.2129008397578989</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>-0.002034052139785756</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>-0.00304027884708648</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.01772918665988386</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.01950785792533106</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>-0.03301353178909162</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>-0.03435440423023885</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.01025499441951481</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.01176511069588723</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.583733347895892</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.09679727538912837</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>-0.0004723783576046621</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>0.7498675833472358</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.5783291298597261</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.2592116930720139</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.3712652899277355</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.5709588366954731</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.0006274411040615839</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.0002986395088824329</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.0331356520234606</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.03588979454236519</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>-0.0003091463647497337</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>-0.0007942684861156037</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.03300560729027606</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.035732157983283</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.08727895112271578</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>0.06386994748703771</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.05407106041166686</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>-0.5210197461253632</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9013594618481426</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.1955052353349092</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.2129008397578989</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.5709588366954731</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.04662040927348918</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.04650888981996847</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.3034650875575943</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.301832534226451</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.03682205872900115</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.03685385460995336</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.3017642644636193</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.3001459385667641</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.01042219559246956</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>-0.06921629215124502</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>-0.02260438866111301</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.004621036211975496</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.04189191896392837</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.02292575539731612</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>-0.002034052139785756</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.0006274411040615839</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.04662040927348918</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9987202973863893</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1988012880944893</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1979999349612698</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>0.006793323127303559</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>0.006481533779649057</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.2001106995862926</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1991969484020661</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.01854861650718118</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.008186838513007713</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.04509161153270844</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.004014182287111465</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.04184738867524801</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.0240454398806087</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>-0.00304027884708648</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.0002986395088824329</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.04650888981996847</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9987202973863893</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1984508816656693</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1980800862131578</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>0.006192807289661506</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>0.005883719344788018</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1996445561458245</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1991496204761239</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.01855195031442737</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.008774210823277463</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.04467677321579561</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.006686474539781652</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1391180440002478</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.02221165189947959</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.01772918665988386</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.0331356520234606</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.3034650875575943</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1988012880944893</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1984508816656693</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9988582021025544</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>-0.009501310280268641</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>-0.009985522151209349</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.960162041917664</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9589659155288198</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.03349793152540261</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.05519743962851309</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.008577482760744338</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.005986876023666271</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1402957807285293</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.02100418231435809</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.01950785792533106</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.03588979454236519</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.301832534226451</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1979999349612698</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1980800862131578</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9988582021025544</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>-0.01051833755386088</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>-0.01107252328573003</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9591688775595575</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9601619884228558</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.0337720616639503</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.05360259438778166</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.009039653927898862</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.004621036211975496</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.04827082585190863</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>-0.009345301032092197</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>-0.03301353178909162</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>-0.0003091463647497337</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.03682205872900115</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>0.006793323127303559</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>0.006192807289661506</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>-0.009501310280268641</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>-0.01051833755386088</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9987202973863893</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1988012880944893</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1979999349612698</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>0.01792262157815854</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.001673917825318744</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.03648192366562878</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.004014182287111465</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.04819997725618546</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>-0.009167380241367346</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>-0.03435440423023885</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>-0.0007942684861156037</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.03685385460995336</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>0.006481533779649057</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>0.005883719344788018</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>-0.009985522151209349</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>-0.01107252328573003</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9987202973863893</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1984508816656693</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1980800862131578</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.01929752534290482</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.0002194664482320927</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.03881576749020099</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.006686474539781652</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1211487368577362</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.02321238687433164</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.01025499441951481</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.03300560729027606</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.3017642644636193</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.2001106995862926</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1996445561458245</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.960162041917664</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9591688775595575</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1988012880944893</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1984508816656693</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9988582021025544</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.02845557284792278</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.05603263014268636</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>0.0002622587486276467</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.005986876023666271</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1223984045686762</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.02197886396287686</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.01176511069588723</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.035732157983283</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.3001459385667641</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1991969484020661</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1991496204761239</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9589659155288198</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9601619884228558</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1979999349612698</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1980800862131578</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9988582021025544</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.02846411670819049</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.0540577135872166</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>0.0001450777805148351</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.01059822522945572</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.004144655095333673</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.6143839808475651</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.583733347895892</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.08727895112271578</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.01042219559246956</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.01854861650718118</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.01855195031442737</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.03349793152540261</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.0337720616639503</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>0.01792262157815854</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.01929752534290482</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.02845557284792278</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.02846411670819049</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.4767816971151322</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.1201895822933348</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.1636420680742338</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.09465537035942269</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.4893035990136784</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.09679727538912837</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>0.06386994748703771</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>-0.06921629215124502</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.008186838513007713</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.008774210823277463</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.05519743962851309</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.05360259438778166</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.001673917825318744</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.0002194664482320927</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.05603263014268636</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.0540577135872166</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.4767816971151322</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.3377674746401279</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>-0.07768174240859298</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.0273909306669804</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.1419276064755105</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>-0.0004723783576046621</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.05407106041166686</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>-0.02260438866111301</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.04509161153270844</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.04467677321579561</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.008577482760744338</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.009039653927898862</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.03648192366562878</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.03881576749020099</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>0.0002622587486276467</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>0.0001450777805148351</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.1201895822933348</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.3377674746401279</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
